--- a/app/Data/Cleaning & Catering Supplies.xlsx
+++ b/app/Data/Cleaning & Catering Supplies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Lino\Platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Lino\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0311BAC1-D950-4822-BA78-39E55546FDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179D05CF-2EEB-4A49-9716-13FFBDCA3E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{07C9ED6A-2041-4063-8D32-84CD3F0A8508}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="127">
   <si>
     <t xml:space="preserve">SKU NUMBER </t>
   </si>
@@ -204,14 +204,226 @@
   </si>
   <si>
     <t xml:space="preserve">6x one </t>
+  </si>
+  <si>
+    <t>ACID DESCALER CONCENTRATE CLEENOL</t>
+  </si>
+  <si>
+    <t>DISHWASH LIQUID GOLD LABEL CLEENOL</t>
+  </si>
+  <si>
+    <t>BLEACH POWER THIN FAIRWAY CLEENOL</t>
+  </si>
+  <si>
+    <t>WATER DEIONISED CLEENOL DISTILLED</t>
+  </si>
+  <si>
+    <t>LIQUID ENZYME DIGESTER CLEENZYME</t>
+  </si>
+  <si>
+    <t>6x1l</t>
+  </si>
+  <si>
+    <t>1l</t>
+  </si>
+  <si>
+    <t>OPTIC GLASS CLEANER</t>
+  </si>
+  <si>
+    <t>LIME AWAY EXTRA ECOLAB</t>
+  </si>
+  <si>
+    <t>ECOLAB</t>
+  </si>
+  <si>
+    <t>DIVODES FG DIVERSEY DISINFECTANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVERSEY </t>
+  </si>
+  <si>
+    <t>6x750ml</t>
+  </si>
+  <si>
+    <t>750ml</t>
+  </si>
+  <si>
+    <t>CLAX SOFT 50A1 FRESH FABRIC SOFTEN</t>
+  </si>
+  <si>
+    <t>1x20l</t>
+  </si>
+  <si>
+    <t>20l</t>
+  </si>
+  <si>
+    <t>SPRINT SPITFIRE SPRAY E5c CLEANER</t>
+  </si>
+  <si>
+    <t>TITAN SANITIZER LIQUID</t>
+  </si>
+  <si>
+    <t>SANI MOULD OUT MILDEW STAIN W469</t>
+  </si>
+  <si>
+    <t>STARCH LIQUID HORIZON</t>
+  </si>
+  <si>
+    <t>HORIZON</t>
+  </si>
+  <si>
+    <t>4x2l</t>
+  </si>
+  <si>
+    <t>2l</t>
+  </si>
+  <si>
+    <t>DISHWASHING POWDER CASCADE PRESOAK</t>
+  </si>
+  <si>
+    <t>1x5kg</t>
+  </si>
+  <si>
+    <t>5kg</t>
+  </si>
+  <si>
+    <t>OVEN SPRAY CLEANER WARM USE</t>
+  </si>
+  <si>
+    <t>DISHWASH LIQUID RED LABEL WASHAID</t>
+  </si>
+  <si>
+    <t>POLISH HIGH SOLIDS 25% CLEENOL FLR</t>
+  </si>
+  <si>
+    <t>SUNEX THICK BLEACH 2X5L</t>
+  </si>
+  <si>
+    <t>SUNEX</t>
+  </si>
+  <si>
+    <t>R2 MULTI SURFACE CLEANER  ROOM CARE</t>
+  </si>
+  <si>
+    <t>TASKI SANI CID PURE ECO</t>
+  </si>
+  <si>
+    <t>1x1.4l</t>
+  </si>
+  <si>
+    <t>1.4l</t>
+  </si>
+  <si>
+    <t>SUMA BAC SANITIZER D10 CONCENTRATE</t>
+  </si>
+  <si>
+    <t>1x1.5l</t>
+  </si>
+  <si>
+    <t>1.5l</t>
+  </si>
+  <si>
+    <t>GLOVES VINYL BLUE SMALL FREE POWDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEARLY </t>
+  </si>
+  <si>
+    <t>10x100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 gloves </t>
+  </si>
+  <si>
+    <t>GLOVES VINYL CLEAR SMALL POWDERED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPERTOUCH </t>
+  </si>
+  <si>
+    <t>GLOVES LATEX MG SMALL FREE POWDER</t>
+  </si>
+  <si>
+    <t>GLOVES VINYL BLUE SMALL POWDERED</t>
+  </si>
+  <si>
+    <t>GLOVES LATEX MG EX-LARGE FREE POWDR</t>
+  </si>
+  <si>
+    <t>GLOVES LATEX EX LARGE POWDERED</t>
+  </si>
+  <si>
+    <t>ALL PURPOSE BLUE ANTI BAC WIPE</t>
+  </si>
+  <si>
+    <t>ROBERT SCOTT</t>
+  </si>
+  <si>
+    <t>6x200</t>
+  </si>
+  <si>
+    <t>200 wipes</t>
+  </si>
+  <si>
+    <t>BRIAL MAXX ALL OVER CLEANER ECOLAB</t>
+  </si>
+  <si>
+    <t>12x1l</t>
+  </si>
+  <si>
+    <t>RENOVATE GLASS LIQUID BACTOSOL</t>
+  </si>
+  <si>
+    <t>FLOOR CLEANER JONTEC 300 DOSING W73</t>
+  </si>
+  <si>
+    <t>OVEN GRILL D9.8 CLEAN SUMA HI TEMP</t>
+  </si>
+  <si>
+    <t>6x2l</t>
+  </si>
+  <si>
+    <t>STAINLESS POLISH SUMA Inox D7.1</t>
+  </si>
+  <si>
+    <t>DISHWASHING SUMA NOVA  L6 PURE ECHO</t>
+  </si>
+  <si>
+    <t>SUMA D2 MULTI PURPOSE CLEANER</t>
+  </si>
+  <si>
+    <t>CLAX PEROXY 43B1 BLEACH FOR LINEN</t>
+  </si>
+  <si>
+    <t>1x10kg</t>
+  </si>
+  <si>
+    <t>10kg</t>
+  </si>
+  <si>
+    <t>DISHWASH POWDER FINISH YELLOW</t>
+  </si>
+  <si>
+    <t>6x1kg</t>
+  </si>
+  <si>
+    <t>1kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINISH </t>
+  </si>
+  <si>
+    <t>DISHWASH POWDER FINISH WHITE</t>
+  </si>
+  <si>
+    <t>5x1kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -238,15 +450,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -254,26 +472,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,20 +825,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9104FB-8E4E-4959-8B42-98830EE9DEB4}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="5" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
@@ -625,7 +862,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -645,24 +882,24 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>5010743550019</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>21.89</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>2.19</v>
       </c>
       <c r="H3" t="s">
@@ -676,19 +913,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>5010743890276</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>22.99</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>22.99</v>
       </c>
       <c r="G4" t="s">
@@ -705,19 +942,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>5010743890023</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>24.19</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>4.09</v>
       </c>
       <c r="G5" t="s">
@@ -734,19 +971,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5011352113305</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
         <v>36.39</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>6.09</v>
       </c>
       <c r="G6" t="s">
@@ -763,19 +1000,19 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5023139237203</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
         <v>61.19</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>10.19</v>
       </c>
       <c r="G7" t="s">
@@ -792,19 +1029,19 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>5023139237203</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
         <v>61.19</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>10.19</v>
       </c>
       <c r="G8" t="s">
@@ -821,19 +1058,19 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>5010893595403</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
         <v>31.09</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>5.19</v>
       </c>
       <c r="G9" t="s">
@@ -850,19 +1087,19 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5010893595656</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
         <v>43.19</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>7.19</v>
       </c>
       <c r="G10" t="s">
@@ -879,19 +1116,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>5010743890092</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>12.89</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>12.89</v>
       </c>
       <c r="G11" t="s">
@@ -907,221 +1144,1318 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>5010699826091</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>51.79</v>
+      </c>
+      <c r="F12" s="11">
+        <v>5.19</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>5013873249211</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11">
+        <v>49.49</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4.99</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>15036770102011</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>101.19</v>
+      </c>
+      <c r="F14" s="11">
+        <v>10.19</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>5036770110118</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>51.79</v>
+      </c>
+      <c r="F15" s="11">
+        <v>5.19</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15036770102042</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>101.19</v>
+      </c>
+      <c r="F16" s="11">
+        <v>10.19</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>15036770105043</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>86.29</v>
+      </c>
+      <c r="F17" s="11">
+        <v>8.69</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>5016929215437</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
         <v>28.79</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F20" s="5">
         <v>14.36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G20" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H20" t="s">
         <v>13</v>
       </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>5016929212023</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
         <v>10.59</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F21" s="5">
         <v>5.29</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G21" t="s">
         <v>17</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H21" t="s">
         <v>13</v>
       </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>5016929212030</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5">
         <v>8.49</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F22" s="5">
         <v>4.29</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G22" t="s">
         <v>17</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H22" t="s">
         <v>13</v>
       </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>5011807439530</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
         <v>12.19</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F23" s="5">
         <v>6.09</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G23" t="s">
         <v>17</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H23" t="s">
         <v>13</v>
       </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>5011888040243</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5">
         <v>19.89</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F24" s="5">
         <v>9.99</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G24" t="s">
         <v>22</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H24" t="s">
         <v>13</v>
       </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>4015600414849</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
         <v>34.89</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F25" s="5">
         <v>17.489999999999998</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G25" t="s">
         <v>50</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H25" t="s">
         <v>13</v>
       </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" t="s">
+      <c r="C26" s="4"/>
+      <c r="G26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>5021506005097</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
         <v>11.29</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F27" s="5">
         <v>1.99</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H27" t="s">
         <v>55</v>
       </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>5016929210722</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
+      <c r="D28" s="11">
+        <v>17.29</v>
+      </c>
+      <c r="F28" s="11">
+        <v>8.69</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>5016929218032</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11">
+        <v>21.39</v>
+      </c>
+      <c r="F29" s="11">
+        <v>10.69</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>5016929412089</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2</v>
+      </c>
+      <c r="D30" s="11">
+        <v>8.99</v>
+      </c>
+      <c r="F30" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>5016929210951</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
+        <v>5.19</v>
+      </c>
+      <c r="F31" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>5016929413727</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" s="11">
+        <v>31.09</v>
+      </c>
+      <c r="F32" s="11">
+        <v>5.19</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>5016929212092</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2</v>
+      </c>
+      <c r="D33" s="11">
+        <v>10.39</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1.79</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>4028159021345</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2</v>
+      </c>
+      <c r="D34" s="11">
+        <v>60.99</v>
+      </c>
+      <c r="F34" s="11">
+        <v>30.49</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>7615400175451</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2</v>
+      </c>
+      <c r="D35" s="11">
+        <v>66.69</v>
+      </c>
+      <c r="F35" s="11">
+        <v>11.19</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>7615400150502</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2</v>
+      </c>
+      <c r="D36" s="11">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="F36" s="11">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>7615400048991</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="8">
+        <v>2</v>
+      </c>
+      <c r="D37" s="11">
+        <v>29.59</v>
+      </c>
+      <c r="F37" s="11">
+        <v>4.99</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>5011888038943</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="8">
+        <v>2</v>
+      </c>
+      <c r="D38" s="11">
+        <v>26.49</v>
+      </c>
+      <c r="F38" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>7615400117673</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2</v>
+      </c>
+      <c r="D39" s="11">
+        <v>31.09</v>
+      </c>
+      <c r="F39" s="11">
+        <v>5.19</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>5011888003101</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11">
+        <v>55.69</v>
+      </c>
+      <c r="F40" s="11">
+        <v>13.99</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>5010893590187</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="8">
+        <v>2</v>
+      </c>
+      <c r="D41" s="11">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="F41" s="11">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>5016929212634</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="8">
+        <v>2</v>
+      </c>
+      <c r="D42" s="11">
+        <v>16.89</v>
+      </c>
+      <c r="F42" s="11">
+        <v>8.49</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>5016929213976</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2</v>
+      </c>
+      <c r="D43" s="11">
+        <v>40.29</v>
+      </c>
+      <c r="F43" s="11">
+        <v>40.29</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>5016929211521</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="8">
+        <v>2</v>
+      </c>
+      <c r="D44" s="11">
+        <v>31.79</v>
+      </c>
+      <c r="F44" s="11">
+        <v>15.89</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>5011392020816</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2</v>
+      </c>
+      <c r="D45" s="11">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F45" s="11">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>5010159553123</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2</v>
+      </c>
+      <c r="D46" s="11">
+        <v>25.29</v>
+      </c>
+      <c r="F46" s="11">
+        <v>4.29</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>7615400143634</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="8">
+        <v>2</v>
+      </c>
+      <c r="D47" s="11">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="F47" s="11">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>5011898066622</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2</v>
+      </c>
+      <c r="D48" s="11">
+        <v>45.99</v>
+      </c>
+      <c r="F48" s="11">
+        <v>45.99</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>5013174044959</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="8">
+        <v>2</v>
+      </c>
+      <c r="D49" s="11">
+        <v>41.09</v>
+      </c>
+      <c r="F49" s="11">
+        <v>6.89</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>4028159084388</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="8">
+        <v>2</v>
+      </c>
+      <c r="D50" s="11">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="F50" s="11">
+        <v>5.79</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>5011888037526</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="8">
+        <v>2</v>
+      </c>
+      <c r="D51" s="11">
+        <v>57.49</v>
+      </c>
+      <c r="F51" s="11">
+        <v>28.79</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>7615400105656</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="8">
+        <v>2</v>
+      </c>
+      <c r="D52" s="11">
+        <v>20.99</v>
+      </c>
+      <c r="F52" s="11">
+        <v>20.99</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>5011888038684</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="8">
+        <v>2</v>
+      </c>
+      <c r="D53" s="11">
+        <v>80.489999999999995</v>
+      </c>
+      <c r="F53" s="11">
+        <v>13.49</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>7615400050314</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="8">
+        <v>2</v>
+      </c>
+      <c r="D54" s="11">
+        <v>44.89</v>
+      </c>
+      <c r="F54" s="11">
+        <v>7.49</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>7615400078769</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="8">
+        <v>2</v>
+      </c>
+      <c r="D55" s="11">
+        <v>44.89</v>
+      </c>
+      <c r="F55" s="11">
+        <v>22.49</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>7615400708833</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="8">
+        <v>2</v>
+      </c>
+      <c r="D56" s="11">
+        <v>41.99</v>
+      </c>
+      <c r="F56" s="11">
+        <v>20.99</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>7615400704552</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2</v>
+      </c>
+      <c r="D57" s="11">
+        <v>49.49</v>
+      </c>
+      <c r="F57" s="11">
+        <v>49.49</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>5011417744321</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2</v>
+      </c>
+      <c r="D58" s="11">
+        <v>18.39</v>
+      </c>
+      <c r="F58" s="11">
+        <v>3.09</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>5011417738306</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="8">
+        <v>2</v>
+      </c>
+      <c r="D59" s="11">
+        <v>14.99</v>
+      </c>
+      <c r="F59" s="11">
+        <v>2.99</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
